--- a/Development/Results/hypopara.model.xlsx
+++ b/Development/Results/hypopara.model.xlsx
@@ -12,54 +12,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t xml:space="preserve">names</t>
   </si>
   <si>
-    <t xml:space="preserve">coef.full</t>
+    <t xml:space="preserve">OR.full</t>
   </si>
   <si>
     <t xml:space="preserve">CI.full</t>
   </si>
   <si>
+    <t xml:space="preserve">shrunk.OR.full</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chi.full</t>
   </si>
   <si>
-    <t xml:space="preserve">coef.final</t>
+    <t xml:space="preserve">OR.final</t>
   </si>
   <si>
     <t xml:space="preserve">CI.final</t>
   </si>
   <si>
+    <t xml:space="preserve">shrunk.OR.final</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chi.final</t>
   </si>
   <si>
-    <t xml:space="preserve">coef.simple</t>
+    <t xml:space="preserve">calibrated.readmission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OR.simple</t>
   </si>
   <si>
     <t xml:space="preserve">CI.simple</t>
   </si>
   <si>
+    <t xml:space="preserve">shrunk.OR.simple</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chi.simple</t>
   </si>
   <si>
     <t xml:space="preserve">Intercept</t>
   </si>
   <si>
+    <t xml:space="preserve">3.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2.23; 4.70]</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.52</t>
   </si>
   <si>
-    <t xml:space="preserve">[1.82; 3.48]</t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">2.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.60; 3.29]</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.86</t>
   </si>
   <si>
-    <t xml:space="preserve">[1.36; 2.54]</t>
+    <t xml:space="preserve">0.67</t>
   </si>
   <si>
     <t xml:space="preserve">0.00</t>
@@ -71,19 +92,31 @@
     <t xml:space="preserve">dPTH</t>
   </si>
   <si>
+    <t xml:space="preserve">1.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.05; 1.14]</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.08</t>
   </si>
   <si>
-    <t xml:space="preserve">[1.05; 1.12]</t>
-  </si>
-  <si>
     <t xml:space="preserve">20.6</t>
   </si>
   <si>
+    <t xml:space="preserve">[1.05; 1.13]</t>
+  </si>
+  <si>
     <t xml:space="preserve">22.5</t>
   </si>
   <si>
-    <t xml:space="preserve">1.09</t>
+    <t xml:space="preserve">1.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.06; 1.14]</t>
   </si>
   <si>
     <t xml:space="preserve">28.3</t>
@@ -92,54 +125,75 @@
     <t xml:space="preserve">CorrCa24u</t>
   </si>
   <si>
+    <t xml:space="preserve">1.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.15; 2.12]</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.47</t>
   </si>
   <si>
-    <t xml:space="preserve">[1.13; 1.92]</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.1</t>
   </si>
   <si>
+    <t xml:space="preserve">1.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.13; 2.05]</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.44</t>
   </si>
   <si>
-    <t xml:space="preserve">[1.11; 1.87]</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.8</t>
   </si>
   <si>
+    <t xml:space="preserve">1.34</t>
+  </si>
+  <si>
     <t xml:space="preserve">BSKgezien - No:Yes</t>
   </si>
   <si>
+    <t xml:space="preserve">4.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.55; 12.94]</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.67</t>
   </si>
   <si>
-    <t xml:space="preserve">[1.46; 9.23]</t>
-  </si>
-  <si>
     <t xml:space="preserve">7.7</t>
   </si>
   <si>
+    <t xml:space="preserve">4.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.75; 13.41]</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.94</t>
   </si>
   <si>
-    <t xml:space="preserve">[1.63; 9.53]</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.3</t>
   </si>
   <si>
+    <t xml:space="preserve">3.02</t>
+  </si>
+  <si>
     <t xml:space="preserve">Age_Years</t>
   </si>
   <si>
+    <t xml:space="preserve">1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.57; 2.37]</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.14</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.61; 2.11]</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.2</t>
   </si>
   <si>
@@ -149,7 +203,7 @@
     <t xml:space="preserve">0.95</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.45; 2.02]</t>
+    <t xml:space="preserve">[0.40; 2.25]</t>
   </si>
   <si>
     <t xml:space="preserve">0.0</t>
@@ -158,7 +212,7 @@
     <t xml:space="preserve">surgery_type - completion:total</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.44; 4.91]</t>
+    <t xml:space="preserve">[0.39; 6.25]</t>
   </si>
   <si>
     <t xml:space="preserve">0.4</t>
@@ -167,10 +221,13 @@
     <t xml:space="preserve">CHKD - Yes:No</t>
   </si>
   <si>
+    <t xml:space="preserve">1.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.57; 3.37]</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.61; 2.87]</t>
   </si>
   <si>
     <t xml:space="preserve">0.5</t>
@@ -554,293 +611,413 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Development/Results/hypopara.model.xlsx
+++ b/Development/Results/hypopara.model.xlsx
@@ -65,7 +65,7 @@
     <t xml:space="preserve">[2.23; 4.70]</t>
   </si>
   <si>
-    <t xml:space="preserve">2.52</t>
+    <t xml:space="preserve">2.40</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -77,10 +77,10 @@
     <t xml:space="preserve">[1.60; 3.29]</t>
   </si>
   <si>
-    <t xml:space="preserve">1.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67</t>
+    <t xml:space="preserve">1.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.69</t>
   </si>
   <si>
     <t xml:space="preserve">0.00</t>

--- a/Development/Results/hypopara.model.xlsx
+++ b/Development/Results/hypopara.model.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t xml:space="preserve">names</t>
   </si>
@@ -44,18 +44,6 @@
     <t xml:space="preserve">calibrated.readmission</t>
   </si>
   <si>
-    <t xml:space="preserve">OR.simple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CI.simple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shrunk.OR.simple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chi.simple</t>
-  </si>
-  <si>
     <t xml:space="preserve">Intercept</t>
   </si>
   <si>
@@ -83,12 +71,6 @@
     <t xml:space="preserve">0.69</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.00; 0.00]</t>
-  </si>
-  <si>
     <t xml:space="preserve">dPTH</t>
   </si>
   <si>
@@ -113,15 +95,6 @@
     <t xml:space="preserve">1.06</t>
   </si>
   <si>
-    <t xml:space="preserve">1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.06; 1.14]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">CorrCa24u</t>
   </si>
   <si>
@@ -245,10 +218,7 @@
     <t xml:space="preserve">[0.84; 0.92]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.81; 0.90]</t>
+    <t xml:space="preserve">0.86 [0.84; 0.92]</t>
   </si>
 </sst>
 </file>
@@ -611,413 +581,293 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="J3" t="s">
         <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" t="s">
-        <v>78</v>
-      </c>
-      <c r="M10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Development/Results/hypopara.model.xlsx
+++ b/Development/Results/hypopara.model.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t xml:space="preserve">names</t>
   </si>
@@ -47,13 +47,13 @@
     <t xml:space="preserve">Intercept</t>
   </si>
   <si>
-    <t xml:space="preserve">3.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2.23; 4.70]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.40</t>
+    <t xml:space="preserve">7.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4.30; 14.20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.97</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -65,10 +65,10 @@
     <t xml:space="preserve">[1.60; 3.29]</t>
   </si>
   <si>
-    <t xml:space="preserve">1.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.69</t>
+    <t xml:space="preserve">1.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.67</t>
   </si>
   <si>
     <t xml:space="preserve">dPTH</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">1.08</t>
   </si>
   <si>
-    <t xml:space="preserve">20.6</t>
+    <t xml:space="preserve">20.5</t>
   </si>
   <si>
     <t xml:space="preserve">[1.05; 1.13]</t>
@@ -95,99 +95,111 @@
     <t xml:space="preserve">1.06</t>
   </si>
   <si>
+    <t xml:space="preserve">BSKgezien - No:Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.52; 12.81]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1.75; 13.41]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.97</t>
+  </si>
+  <si>
     <t xml:space="preserve">CorrCa24u</t>
   </si>
   <si>
-    <t xml:space="preserve">1.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.15; 2.12]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1</t>
+    <t xml:space="preserve">1.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.97; 2.72]</t>
   </si>
   <si>
     <t xml:space="preserve">1.52</t>
   </si>
   <si>
+    <t xml:space="preserve">3.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">[1.13; 2.05]</t>
   </si>
   <si>
+    <t xml:space="preserve">1.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dCorrCa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.90; 1.14]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age_Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.57; 2.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex - Male:Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.40; 2.26]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surgery_type - completion:total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.37; 6.30]</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.44</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSKgezien - No:Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.55; 12.94]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[1.75; 13.41]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Age_Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.57; 2.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex - Male:Female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.40; 2.25]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surgery_type - completion:total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.39; 6.25]</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.4</t>
   </si>
   <si>
@@ -197,10 +209,10 @@
     <t xml:space="preserve">1.39</t>
   </si>
   <si>
-    <t xml:space="preserve">[0.57; 3.37]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33</t>
+    <t xml:space="preserve">[0.57; 3.38]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32</t>
   </si>
   <si>
     <t xml:space="preserve">0.5</t>
@@ -218,7 +230,7 @@
     <t xml:space="preserve">[0.84; 0.92]</t>
   </si>
   <si>
-    <t xml:space="preserve">0.86 [0.84; 0.92]</t>
+    <t xml:space="preserve">0.85 [0.80; 0.91]</t>
   </si>
 </sst>
 </file>
@@ -695,36 +707,36 @@
         <v>41</v>
       </c>
       <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
         <v>42</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>43</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>44</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>45</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
         <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -744,19 +756,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
         <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
       </c>
       <c r="D7" t="s">
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -776,19 +788,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
         <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -808,19 +820,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>61</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>62</v>
-      </c>
-      <c r="E9" t="s">
-        <v>63</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -840,25 +852,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -867,7 +879,39 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
         <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
